--- a/src/public/postpoint.xlsx
+++ b/src/public/postpoint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Mã Học Sinh</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Mã Môn Học</t>
+  </si>
+  <si>
+    <t>Địa Lý</t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1018,8 +1021,8 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
